--- a/Лаба 2/Результаты/Полученные результаты/Проверка простой гипотезы/Файлы построенных таблиц по результатам/Колмагорова_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Проверка простой гипотезы/Файлы построенных таблиц по результатам/Колмагорова_result.xlsx
@@ -519,7 +519,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6321</v>
+        <v>0.6322</v>
       </c>
       <c r="D6" t="n">
         <v>0.8191000000000001</v>
@@ -547,7 +547,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5726</v>
+        <v>0.5727</v>
       </c>
       <c r="D8" t="n">
         <v>0.8983</v>

--- a/Лаба 2/Результаты/Полученные результаты/Проверка простой гипотезы/Файлы построенных таблиц по результатам/Колмагорова_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Проверка простой гипотезы/Файлы построенных таблиц по результатам/Колмагорова_result.xlsx
@@ -1,43 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="600" yWindow="615" windowWidth="12135" windowHeight="10170"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+  <si>
+    <t>a(1)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Критерий Колмогорова</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -46,93 +66,66 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,294 +413,515 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>a(1)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
         <v>0.5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>50</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.095</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.1817</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>500</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.6754</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.7517</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D3">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
         <v>0.5</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>500</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.7194</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6787</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C4">
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4">
+        <f ca="1">OFFSET($A$2,MATCH($F4,$A$2:$A$19,0)+MATCH(G$2,$B$2:$B$4,0)-2,2)</f>
+        <v>1.095</v>
+      </c>
+      <c r="H4" s="4">
+        <f ca="1">OFFSET($A$2,MATCH($F4,$A$2:$A$19,0)+MATCH(G$2,$B$2:$B$4,0)-2,3)</f>
+        <v>0.1817</v>
+      </c>
+      <c r="I4" s="4">
+        <f ca="1">OFFSET($A$2,MATCH($F4,$A$2:$A$19,0)+MATCH(I$2,$B$2:$B$4,0)-2,2)</f>
+        <v>0.6754</v>
+      </c>
+      <c r="J4" s="4">
+        <f ca="1">OFFSET($A$2,MATCH($F4,$A$2:$A$19,0)+MATCH(I$2,$B$2:$B$4,0)-2,3)</f>
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="K4" s="4">
+        <f ca="1">OFFSET($A$2,MATCH($F4,$A$2:$A$19,0)+MATCH(K$2,$B$2:$B$4,0)-2,2)</f>
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="L4" s="4">
+        <f ca="1">OFFSET($A$2,MATCH($F4,$A$2:$A$19,0)+MATCH(K$2,$B$2:$B$4,0)-2,3)</f>
+        <v>0.67869999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>50</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.6709000000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7589</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C5">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="D5">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="B6" t="n">
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G9" ca="1" si="0">OFFSET($A$2,MATCH($F5,$A$2:$A$19,0)+MATCH(G$2,$B$2:$B$4,0)-2,2)</f>
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H9" ca="1" si="1">OFFSET($A$2,MATCH($F5,$A$2:$A$19,0)+MATCH(G$2,$B$2:$B$4,0)-2,3)</f>
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I9" ca="1" si="2">OFFSET($A$2,MATCH($F5,$A$2:$A$19,0)+MATCH(I$2,$B$2:$B$4,0)-2,2)</f>
+        <v>0.63219999999999998</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J9" ca="1" si="3">OFFSET($A$2,MATCH($F5,$A$2:$A$19,0)+MATCH(I$2,$B$2:$B$4,0)-2,3)</f>
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:K9" ca="1" si="4">OFFSET($A$2,MATCH($F5,$A$2:$A$19,0)+MATCH(K$2,$B$2:$B$4,0)-2,2)</f>
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L9" ca="1" si="5">OFFSET($A$2,MATCH($F5,$A$2:$A$19,0)+MATCH(K$2,$B$2:$B$4,0)-2,3)</f>
+        <v>0.36320000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.6322</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8191000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C6">
+        <v>0.63219999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57269999999999999</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39839999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>500</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.9219000000000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3632</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C7">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="D7">
+        <v>0.36320000000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0093000000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.8196</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.51270000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>50</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.5727</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8983</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="C8">
+        <v>0.57269999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1077999999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45689999999999997</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.70620000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>100</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.5627</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9095</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C9">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4859</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.36720000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>500</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.8959</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.3984</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="C10">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.39839999999999998</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>50</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.0093</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.2602</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="C11">
+        <v>1.0093000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.26019999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>100</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.7543</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="D12">
         <v>0.62</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:12">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>500</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.8196</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.5127</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="D13">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>50</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.1078</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1717</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="C14">
+        <v>1.1077999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f ca="1">OFFSET(A2,MATCH($E14,$A$2:$A$19,0)+MATCH(F$13,$B$2:$B$4,0)-2,2)</f>
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="G14">
+        <f>MATCH(F$13,$B$2:$B$4,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>100</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.8556</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4569</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="C15">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="D15">
+        <v>0.45689999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>500</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.703</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.7062</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="C16">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="D16">
+        <v>0.70620000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>50</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.8366</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="D17">
         <v>0.4859</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>100</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.6664</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.7662</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="C18">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.76619999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>500</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.9189000000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3672</v>
+      <c r="C19">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="D19">
+        <v>0.36720000000000003</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F1:L1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>